--- a/src/main/java/com/winwin/picreport/Bcontroller/daYang/打样定价模块_up_def表.xlsx
+++ b/src/main/java/com/winwin/picreport/Bcontroller/daYang/打样定价模块_up_def表.xlsx
@@ -4,19 +4,18 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="105" windowWidth="12765" windowHeight="5715" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="105" windowWidth="12765" windowHeight="5715" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="up_def各个字段" sheetId="1" r:id="rId1"/>
-    <sheet name="采购销售对照表sale_buy_link" sheetId="2" r:id="rId2"/>
-    <sheet name="我们页面销售和采购价格表对比" sheetId="3" r:id="rId3"/>
+    <sheet name="我们页面销售和采购价格表对比" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <r>
       <rPr>
@@ -170,6 +169,39 @@
         <charset val="134"/>
       </rPr>
       <t>采购只有本币</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">  prm_no</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>关联采购和销售价格</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -284,58 +316,6 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2049" name="Picture 1"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="10439400" cy="3333750"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="1">
-          <a:noFill/>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd type="none" w="med" len="med"/>
-        </a:ln>
-        <a:effectLst/>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -693,32 +673,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="B24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="24" spans="2:2">
+      <c r="B24" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/src/main/java/com/winwin/picreport/Bcontroller/daYang/打样定价模块_up_def表.xlsx
+++ b/src/main/java/com/winwin/picreport/Bcontroller/daYang/打样定价模块_up_def表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="105" windowWidth="12765" windowHeight="5715" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="105" windowWidth="12765" windowHeight="5715"/>
   </bookViews>
   <sheets>
     <sheet name="up_def各个字段" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <r>
       <rPr>
@@ -25,117 +25,27 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>其实要</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>确定一条唯一的打样数据需要</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> olefield(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>同一次保存</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>)+cur_id(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>本币外币</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>)+bil_type(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>有无运费</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>)+price_id(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>销售还是采购</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>)</t>
+      <t>注意</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>采购只有本币</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -148,27 +58,27 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>注意</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>采购只有本币</t>
+      <t>用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">  prm_no</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>关联采购和销售价格</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -181,27 +91,323 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>用</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">  prm_no</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>关联采购和销售价格</t>
+      <t>其实要</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>确定一条唯一的打样数据需要</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> olefield(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>同一次保存</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)+cur_id(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>本币外币</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)+bil_type(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>有无运费</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)+price_id(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>销售还是采购</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)+prd_no</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>打样定价保存</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">,  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>采购还用原来的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>销售的另外开接口</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>采购的老郑</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>20180613</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>说只有</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>本币有运费一种了</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>没有其他了</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">  ,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>销售的有</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>本币外币</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>有运费和无运费</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>种</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -232,12 +438,18 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -252,8 +464,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -321,14 +534,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -346,7 +559,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="0" y="962025"/>
+          <a:off x="0" y="1219200"/>
           <a:ext cx="13268325" cy="2790825"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -355,6 +568,56 @@
         <a:noFill/>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="直接箭头连接符 3"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5534025" y="4029075"/>
+          <a:ext cx="6619875" cy="19050"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="76200">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -645,23 +908,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A26:A27"/>
+  <dimension ref="A26:G30"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="Q6" sqref="Q6"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="M27" sqref="M27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="26" spans="1:1">
+    <row r="26" spans="1:7">
       <c r="A26" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:1">
-      <c r="A27" t="s">
-        <v>1</v>
+    <row r="29" spans="1:7">
+      <c r="A29" t="s">
+        <v>3</v>
       </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" t="s">
+        <v>4</v>
+      </c>
+      <c r="D30" s="1"/>
+      <c r="G30" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -675,15 +950,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
     <row r="24" spans="2:2">
       <c r="B24" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/java/com/winwin/picreport/Bcontroller/daYang/打样定价模块_up_def表.xlsx
+++ b/src/main/java/com/winwin/picreport/Bcontroller/daYang/打样定价模块_up_def表.xlsx
@@ -910,7 +910,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A26:G30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
       <selection activeCell="M27" sqref="M27"/>
     </sheetView>
   </sheetViews>
